--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D962A836-5059-4BAA-AA81-B90BD38735AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF95F26-E1E0-46EA-9CCB-469C986BCB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Team Name</t>
   </si>
@@ -77,6 +78,15 @@
   </si>
   <si>
     <t>Group B</t>
+  </si>
+  <si>
+    <t>Goal Scored</t>
+  </si>
+  <si>
+    <t>Goal Concedered</t>
+  </si>
+  <si>
+    <t>Panelty Points</t>
   </si>
 </sst>
 </file>
@@ -443,16 +453,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E22E49-AC30-4AE2-B781-5C6A00E5D167}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J11" sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="8" width="16.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,13 +496,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -492,13 +528,23 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>(C2*3)+(D2*1)</f>
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -515,13 +561,23 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="0">(C3*3)+(D3*1)</f>
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -538,13 +594,23 @@
         <v>1</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -561,13 +627,23 @@
         <v>1</v>
       </c>
       <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -584,13 +660,23 @@
         <v>3</v>
       </c>
       <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -607,13 +693,23 @@
         <v>1</v>
       </c>
       <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -630,13 +726,23 @@
         <v>1</v>
       </c>
       <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -653,13 +759,23 @@
         <v>1</v>
       </c>
       <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -676,13 +792,23 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -699,9 +825,19 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>18</v>
       </c>
     </row>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF95F26-E1E0-46EA-9CCB-469C986BCB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B2C79F-8E62-45C2-8EB9-EB62D7B39231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="252" yWindow="0" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <t>Goal Concedered</t>
   </si>
   <si>
-    <t>Panelty Points</t>
+    <t>Penalty Points</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="A1:J11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B2C79F-8E62-45C2-8EB9-EB62D7B39231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D602295-4F5A-4456-82F0-82815E8AEE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="0" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,16 +552,16 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -571,7 +571,7 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I11" si="0">(C3*3)+(D3*1)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -594,13 +594,13 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -618,10 +618,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -630,14 +630,14 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D602295-4F5A-4456-82F0-82815E8AEE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70077D3B-8AC2-4385-8190-DBD215FF71B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="0" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="252" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -453,23 +452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E22E49-AC30-4AE2-B781-5C6A00E5D167}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70077D3B-8AC2-4385-8190-DBD215FF71B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8720E4B-7811-4947-8BC3-F4457B32C0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,11 +144,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,14 +460,15 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="8" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -488,7 +493,7 @@
       <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -520,7 +525,7 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0</v>
       </c>
       <c r="I2">
@@ -553,7 +558,7 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0</v>
       </c>
       <c r="I3">
@@ -586,7 +591,7 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>-6</v>
       </c>
       <c r="I4">
@@ -619,7 +624,7 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>-3</v>
       </c>
       <c r="I5">
@@ -652,7 +657,7 @@
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>0</v>
       </c>
       <c r="I6">
@@ -685,7 +690,7 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>0</v>
       </c>
       <c r="I7">
@@ -718,7 +723,7 @@
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8">
@@ -751,7 +756,7 @@
       <c r="G9">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9">
@@ -784,7 +789,7 @@
       <c r="G10">
         <v>6</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10">
@@ -817,7 +822,7 @@
       <c r="G11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>0</v>
       </c>
       <c r="I11">
@@ -830,5 +835,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8720E4B-7811-4947-8BC3-F4457B32C0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA439B0C-A259-4004-9C43-384D6F73A96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA439B0C-A259-4004-9C43-384D6F73A96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B00440-5D3D-4219-A1C7-8260EE90D9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Team Name</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>Penalty Points</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Red</t>
   </si>
 </sst>
 </file>
@@ -109,15 +118,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,11 +167,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -153,6 +189,22 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,9 +521,14 @@
     <col min="6" max="6" width="15.5546875" customWidth="1"/>
     <col min="7" max="7" width="16.21875" customWidth="1"/>
     <col min="8" max="8" width="16.21875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="6"/>
+    <col min="13" max="13" width="8.88671875" style="8"/>
+    <col min="14" max="14" width="8.88671875" style="10"/>
+    <col min="17" max="17" width="8.88671875" style="4"/>
+    <col min="18" max="18" width="3.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,16 +559,31 @@
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -520,28 +592,44 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3">
-        <v>0</v>
+        <f>+L2*$R$1+M2*$R$2+N2*$R$3</f>
+        <v>-7</v>
       </c>
       <c r="I2">
         <f>(C2*3)+(D2*1)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L2" s="6">
+        <v>5</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="8">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -559,28 +647,41 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <f t="shared" ref="H3:H11" si="0">+L3*$R$1+M3*$R$2+N3*$R$3</f>
+        <v>-7</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="0">(C3*3)+(D3*1)</f>
+        <f t="shared" ref="I3:I11" si="1">(C3*3)+(D3*1)</f>
         <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="10">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -592,17 +693,24 @@
         <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>-6</v>
+        <f t="shared" si="0"/>
+        <v>-22</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L4" s="6">
+        <v>2</v>
+      </c>
+      <c r="N4" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -613,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -625,17 +733,21 @@
         <v>2</v>
       </c>
       <c r="H5" s="3">
-        <v>-3</v>
+        <f t="shared" si="0"/>
+        <v>-4</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -646,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -658,17 +770,21 @@
         <v>3</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-10</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -679,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -691,17 +807,18 @@
         <v>1</v>
       </c>
       <c r="H7" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -724,17 +841,18 @@
         <v>2</v>
       </c>
       <c r="H8" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -745,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -757,17 +875,18 @@
         <v>4</v>
       </c>
       <c r="H9" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -778,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -790,17 +909,18 @@
         <v>6</v>
       </c>
       <c r="H10" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -823,10 +943,11 @@
         <v>4</v>
       </c>
       <c r="H11" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" t="s">

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B00440-5D3D-4219-A1C7-8260EE90D9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F66BCB7-C9C9-466C-B0E5-CD9BDBC23FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,36 +43,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Team A</t>
-  </si>
-  <si>
-    <t>Team B</t>
-  </si>
-  <si>
-    <t>Team C</t>
-  </si>
-  <si>
-    <t>Team D</t>
-  </si>
-  <si>
-    <t>Team E</t>
-  </si>
-  <si>
-    <t>Team F</t>
-  </si>
-  <si>
-    <t>Team G</t>
-  </si>
-  <si>
-    <t>Team H</t>
-  </si>
-  <si>
-    <t>Team I</t>
-  </si>
-  <si>
-    <t>Team J</t>
-  </si>
-  <si>
     <t>Group A</t>
   </si>
   <si>
@@ -95,6 +65,36 @@
   </si>
   <si>
     <t>Red</t>
+  </si>
+  <si>
+    <t>Mora A</t>
+  </si>
+  <si>
+    <t>Sabra</t>
+  </si>
+  <si>
+    <t>Pera</t>
+  </si>
+  <si>
+    <t>Wayamba</t>
+  </si>
+  <si>
+    <t>Rajarata</t>
+  </si>
+  <si>
+    <t>Mora B</t>
+  </si>
+  <si>
+    <t>Ruhuna</t>
+  </si>
+  <si>
+    <t>Kelani</t>
+  </si>
+  <si>
+    <t>Japura</t>
+  </si>
+  <si>
+    <t>Colombo</t>
   </si>
 </sst>
 </file>
@@ -512,11 +512,12 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" customWidth="1"/>
     <col min="7" max="7" width="16.21875" customWidth="1"/>
@@ -545,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -560,16 +561,16 @@
         <v>6</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="R1" s="6">
         <v>-1</v>
@@ -577,48 +578,39 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
         <f>+L2*$R$1+M2*$R$2+N2*$R$3</f>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f>(C2*3)+(D2*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="6">
-        <v>5</v>
-      </c>
-      <c r="M2" s="8">
-        <v>1</v>
-      </c>
-      <c r="N2" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="R2" s="8">
         <v>-2</v>
@@ -626,45 +618,39 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H11" si="0">+L3*$R$1+M3*$R$2+N3*$R$3</f>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I11" si="1">(C3*3)+(D3*1)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="6">
-        <v>1</v>
-      </c>
-      <c r="M3" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R3" s="10">
         <v>-5</v>
@@ -672,139 +658,127 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="6">
-        <v>2</v>
-      </c>
-      <c r="N4" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
@@ -812,33 +786,33 @@
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
@@ -846,33 +820,33 @@
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
@@ -880,33 +854,33 @@
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
@@ -914,18 +888,18 @@
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -934,13 +908,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
@@ -951,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F66BCB7-C9C9-466C-B0E5-CD9BDBC23FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B137A2D-2E5D-42C1-8962-DCEAD1131CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,10 +581,10 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -604,7 +604,7 @@
       </c>
       <c r="I2">
         <f>(C2*3)+(D2*1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -621,7 +621,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -630,17 +630,17 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H11" si="0">+L3*$R$1+M3*$R$2+N3*$R$3</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I11" si="1">(C3*3)+(D3*1)</f>
@@ -648,6 +648,9 @@
       </c>
       <c r="J3" t="s">
         <v>7</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>14</v>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B137A2D-2E5D-42C1-8962-DCEAD1131CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7299EA85-3307-43B0-97F3-6D412CA90FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,13 +664,13 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -683,14 +683,17 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -698,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -721,7 +724,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7299EA85-3307-43B0-97F3-6D412CA90FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181F46FE-410B-402E-A311-6212648268C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,13 +803,13 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>
@@ -837,13 +837,13 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -856,14 +856,17 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181F46FE-410B-402E-A311-6212648268C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C3FE5C-B21B-4093-8BE1-C4F9BD490252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,7 +874,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
@@ -908,10 +908,10 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -931,7 +931,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
         <v>8</v>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C3FE5C-B21B-4093-8BE1-C4F9BD490252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3C3DD2-E591-40B3-BAEB-74899610EFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,10 +581,10 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -604,7 +604,7 @@
       </c>
       <c r="I2">
         <f>(C2*3)+(D2*1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -621,7 +621,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H11" si="0">+L3*$R$1+M3*$R$2+N3*$R$3</f>
@@ -664,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -687,7 +687,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -744,13 +744,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
@@ -769,7 +769,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
@@ -803,10 +803,10 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3C3DD2-E591-40B3-BAEB-74899610EFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A035DAE2-0CE2-4B88-B8DC-9AA7A9E635EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,10 +837,10 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -860,7 +860,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
@@ -874,7 +874,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A035DAE2-0CE2-4B88-B8DC-9AA7A9E635EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E84B1A6-37E3-4293-A48B-6D3B04B00ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,13 +581,13 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -600,14 +600,17 @@
       </c>
       <c r="H2" s="3">
         <f>+L2*$R$1+M2*$R$2+N2*$R$3</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I2">
         <f>(C2*3)+(D2*1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>13</v>
@@ -701,13 +704,13 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -724,7 +727,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E84B1A6-37E3-4293-A48B-6D3B04B00ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2E5179-AB48-46E4-A37A-A08E3C4FFE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,13 +624,13 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I11" si="1">(C3*3)+(D3*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -738,13 +738,13 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -757,14 +757,17 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -772,7 +775,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -781,13 +784,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
@@ -806,13 +809,13 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -829,7 +832,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>
@@ -840,10 +843,10 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -852,24 +855,24 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -911,13 +914,13 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -930,14 +933,17 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
         <v>8</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2E5179-AB48-46E4-A37A-A08E3C4FFE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FB43D7-3105-48E9-8018-D9A2F0388216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,33 +581,36 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3">
         <f>+L2*$R$1+M2*$R$2+N2*$R$3</f>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="I2">
         <f>(C2*3)+(D2*1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
+      </c>
+      <c r="L2" s="6">
+        <v>2</v>
       </c>
       <c r="M2" s="8">
         <v>1</v>
@@ -667,22 +670,22 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
@@ -690,7 +693,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FB43D7-3105-48E9-8018-D9A2F0388216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E39031-4879-4389-BE6F-7590147CE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,10 +707,10 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -730,7 +730,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
@@ -741,7 +741,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -750,17 +750,17 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
@@ -770,6 +770,9 @@
         <v>7</v>
       </c>
       <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
         <v>1</v>
       </c>
     </row>
@@ -778,7 +781,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -787,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
@@ -812,33 +815,36 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -883,22 +889,22 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
@@ -906,7 +912,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>8</v>
@@ -917,10 +923,10 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -929,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -940,7 +946,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" t="s">
         <v>8</v>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E39031-4879-4389-BE6F-7590147CE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CE7A55-954E-4913-B788-FAADFCD5A431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +627,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H11" si="0">+L3*$R$1+M3*$R$2+N3*$R$3</f>
@@ -707,10 +707,10 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -730,7 +730,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CE7A55-954E-4913-B788-FAADFCD5A431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E219212B-4A1B-4785-B518-97DA6B10B548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -693,7 +693,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -741,7 +741,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>

--- a/pointtable_boys.xlsx
+++ b/pointtable_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E219212B-4A1B-4785-B518-97DA6B10B548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4812B5A-749D-4004-A173-B7B3697A2958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,13 +781,13 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -804,7 +804,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>8</v>
@@ -852,7 +852,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -889,13 +889,13 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -908,14 +908,17 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>8</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -923,11 +926,11 @@
         <v>24</v>
       </c>
       <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -935,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -946,7 +949,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
         <v>8</v>
